--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1867.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1867.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1399078997351748</v>
+        <v>1.932756781578064</v>
       </c>
       <c r="B1">
-        <v>0.1554347265519299</v>
+        <v>2.605717182159424</v>
       </c>
       <c r="C1">
-        <v>0.186758493792717</v>
+        <v>2.460438966751099</v>
       </c>
       <c r="D1">
-        <v>0.3398930951104104</v>
+        <v>2.594599008560181</v>
       </c>
       <c r="E1">
-        <v>1.247506013758167</v>
+        <v>3.38646125793457</v>
       </c>
     </row>
   </sheetData>
